--- a/chat-master/Propuesta trabajo Chat Interno.xlsx
+++ b/chat-master/Propuesta trabajo Chat Interno.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoan.duarte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chat-con-grupos-main\chat-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>Chat como WA</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>crear usuario: area, grupo</t>
+  </si>
+  <si>
+    <t>revisar</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -563,9 +572,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -583,49 +589,61 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,7 +1048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1115,26 +1133,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
@@ -1143,19 +1161,19 @@
       <c r="C9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R10" s="1" t="s">
@@ -1204,177 +1222,177 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>6</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1478,87 +1496,87 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="21">
         <v>6</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="21"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="22"/>
+      <c r="C60" s="21"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="21"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="21"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="22"/>
+      <c r="C65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="22"/>
+      <c r="C66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="22"/>
+      <c r="C67" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -1569,43 +1587,43 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
-      <c r="D72" s="29"/>
+      <c r="B72" s="27"/>
+      <c r="D72" s="28"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="28"/>
-      <c r="D73" s="30"/>
+      <c r="B73" s="27"/>
+      <c r="D73" s="29"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="B74" s="27"/>
+      <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="29"/>
-      <c r="D75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="D75" s="27"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="30"/>
-      <c r="D76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
-      <c r="D77" s="29"/>
+      <c r="B77" s="27"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="30"/>
+      <c r="D78" s="29"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="28"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="29"/>
+      <c r="D80" s="28"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="30"/>
+      <c r="D81" s="29"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="28"/>
+      <c r="D82" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1619,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,169 +1649,177 @@
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="42">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="35">
         <v>44987</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="35" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="35" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="35" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="36"/>
+      <c r="C6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="35" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="36"/>
+      <c r="C7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="35" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="35" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="36"/>
+      <c r="C9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="35" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="35" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="35" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="35" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="38" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="45"/>
+      <c r="H19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B3:B14"/>
@@ -1803,12 +1829,8 @@
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chat-master/Propuesta trabajo Chat Interno.xlsx
+++ b/chat-master/Propuesta trabajo Chat Interno.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>Chat como WA</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>revisar</t>
+  </si>
+  <si>
+    <t>FALTA ADD A BD</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -593,6 +602,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -600,6 +624,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -611,37 +653,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1637,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,157 +1676,157 @@
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="35">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="46">
         <v>44987</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="32" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="32" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="47"/>
+      <c r="C5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="46" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="47"/>
+      <c r="C6" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
       <c r="J6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="32" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="47"/>
+      <c r="C7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="32" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="47"/>
+      <c r="C8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="32" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="47"/>
+      <c r="C9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="32" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="47"/>
+      <c r="C10" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" s="32" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="47"/>
+      <c r="C11" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="32" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="47"/>
+      <c r="C12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="32" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="47"/>
+      <c r="C13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
       <c r="C14" s="43" t="s">
         <v>68</v>
       </c>
@@ -1809,17 +1836,18 @@
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="45"/>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="30"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B3:B14"/>
@@ -1829,6 +1857,11 @@
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/chat-master/Propuesta trabajo Chat Interno.xlsx
+++ b/chat-master/Propuesta trabajo Chat Interno.xlsx
@@ -602,6 +602,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,13 +653,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,42 +669,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1667,7 +1667,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,33 +1677,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="46">
+      <c r="B3" s="38">
         <v>44987</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="49" t="s">
         <v>58</v>
       </c>
@@ -1715,127 +1715,127 @@
       <c r="I4" s="51"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
       <c r="J6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="43" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
       <c r="J14" t="s">
         <v>70</v>
       </c>
@@ -1848,6 +1848,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B3:B14"/>
@@ -1857,11 +1862,6 @@
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/chat-master/Propuesta trabajo Chat Interno.xlsx
+++ b/chat-master/Propuesta trabajo Chat Interno.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t>Chat como WA</t>
   </si>
@@ -232,12 +232,6 @@
   </si>
   <si>
     <t>crear usuario: area, grupo</t>
-  </si>
-  <si>
-    <t>revisar</t>
-  </si>
-  <si>
-    <t>FALTA ADD A BD</t>
   </si>
 </sst>
 </file>
@@ -337,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,12 +377,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +590,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,6 +621,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,46 +650,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1667,7 +1655,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,168 +1665,162 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="49">
         <v>44987</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" t="s">
-        <v>70</v>
-      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K15" s="30"/>
@@ -1848,11 +1830,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B3:B14"/>
@@ -1862,6 +1839,11 @@
     <mergeCell ref="C10:I10"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="C12:I12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
